--- a/biology/Botanique/Camptandra/Camptandra.xlsx
+++ b/biology/Botanique/Camptandra/Camptandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camptandra est un genre de plante de la famille des Zingibéracées.
 </t>
@@ -511,14 +523,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 juil. 2010)[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 juil. 2010)
 Camptandra gracillima (K.Schum.) Valeton (1918)
 Camptandra latifolia Ridl. (1899)
 Camptandra ovata Ridl. (1907)
 Camptandra parvula (King ex Baker) Ridl. (1899)
-Selon NCBI  (16 juil. 2010)[2]
+Selon NCBI  (16 juil. 2010)
 Camptandra ovata
 Camptandra parvula</t>
         </is>
@@ -548,7 +562,9 @@
           <t>Noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Camptandra angustifolia (Ridl.) Ridl., (1905) = Camptandra gracillima (K.Schum.) Valeton (1918)
 Camptandra parvula var. angustifolia Ridl., (1899) = Camptandra gracillima (K.Schum.) Valeton (1918)
